--- a/outputs/ML_Results/carown_LR/Düsseldorf.xlsx
+++ b/outputs/ML_Results/carown_LR/Düsseldorf.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ17" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ10" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ0" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ6" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ8" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ7" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ20" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="summ5" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ7" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ2" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ38" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ0" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ26" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ2" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.68696135431486</v>
+        <v>-1.561107102235817</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1534496050525118</v>
+        <v>0.1863711247180394</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2878672739805598</v>
+        <v>-0.2959038819703454</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2170331275442237</v>
+        <v>0.2036353415748227</v>
       </c>
     </row>
     <row r="4">
@@ -492,257 +492,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6370226035573379</v>
+        <v>-0.5451561926411252</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0005867835176794858</v>
+        <v>0.003134734190696873</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4435461625108451</v>
+        <v>-0.5645230156616982</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1900037390507567</v>
+        <v>0.003614754958364265</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6550663305434657</v>
+        <v>-0.4533414806867941</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0007836640049701984</v>
+        <v>0.1692045837203476</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4834154705453417</v>
+        <v>0.2458881417272878</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6103024079326616</v>
+        <v>0.03322892915285573</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2501298423940673</v>
+        <v>0.0002810456823046681</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03395000761205581</v>
+        <v>1.047287118315182e-12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0002773136741480402</v>
+        <v>0.005616380325670633</v>
       </c>
       <c r="C9" t="n">
-        <v>2.066670728794917e-12</v>
+        <v>0.189905445122192</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.00729739371869751</v>
+        <v>0.06527141120323494</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09128401276873378</v>
+        <v>0.6060211297335083</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06273828976561115</v>
+        <v>0.4721983981207523</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6216888984155959</v>
+        <v>0.007514895727045273</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3990333700852728</v>
+        <v>0.5228079841184144</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02171701253369338</v>
+        <v>0.0199856573329628</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3723590583047206</v>
+        <v>-3.234180901693935e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09376877859090725</v>
+        <v>0.1801414604896185</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.414355476832426e-05</v>
+        <v>-1.403739894957436e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1633212398642546</v>
+        <v>0.9622133981327127</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.483568292959346e-09</v>
+        <v>-0.01068210983427728</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8563151270922547</v>
+        <v>0.8119965317041752</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.001606192277439413</v>
+        <v>0.09056739723823189</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9714945738554709</v>
+        <v>0.007924495869553076</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.09601562467057009</v>
+        <v>1.689218966806128</v>
       </c>
       <c r="C17" t="n">
-        <v>0.005042449520493028</v>
+        <v>0.24807526860485</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.250507917690529</v>
+        <v>-0.010187957071061</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3946733634538749</v>
+        <v>0.1228804004083258</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.006653820876377742</v>
+        <v>0.00626164675688018</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3217260745088284</v>
+        <v>0.4084340883819416</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.007563740304654271</v>
+        <v>-0.125867966979031</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3179769995462407</v>
+        <v>0.9083867573894806</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.478622031896914</v>
+        <v>-0.4664014055142731</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6605342968001238</v>
+        <v>0.6131875072880085</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.8380565613744544</v>
+        <v>0.6219039586184034</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3650161260976021</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.610781849117139</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.4521782617075456</v>
+        <v>0.443680673490854</v>
       </c>
     </row>
   </sheetData>
@@ -756,7 +743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.9802392789815452</v>
+        <v>-1.597862579570731</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4042241222761985</v>
+        <v>0.1799314066762677</v>
       </c>
     </row>
     <row r="3">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1871623294789739</v>
+        <v>-0.327124452311744</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4223096427816534</v>
+        <v>0.1669082742383052</v>
       </c>
     </row>
     <row r="4">
@@ -814,257 +801,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6666142562966008</v>
+        <v>-0.6757227394371704</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002655312135550015</v>
+        <v>0.000304421302144263</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3269778358771177</v>
+        <v>-0.7722354710615541</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3554296263534973</v>
+        <v>8.469916986489827e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7523377277796663</v>
+        <v>-0.3893103719634208</v>
       </c>
       <c r="C6" t="n">
-        <v>9.26079461911892e-05</v>
+        <v>0.2225113097656066</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2050237011288366</v>
+        <v>0.2048456997543164</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8679477710026722</v>
+        <v>0.08603774807932993</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.152554716584846</v>
+        <v>0.0002864484049429901</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1826515695557686</v>
+        <v>1.658221877380916e-12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0002799830769954764</v>
+        <v>0.009014548407271627</v>
       </c>
       <c r="C9" t="n">
-        <v>2.216292283742157e-12</v>
+        <v>0.03804865252027996</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.008221875962933285</v>
+        <v>0.06830302765152946</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05716647922857748</v>
+        <v>0.5921437540839841</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05514111028193968</v>
+        <v>0.492735702029518</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6628298119023415</v>
+        <v>0.005256422197573166</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4861317829232719</v>
+        <v>0.3426560960583885</v>
       </c>
       <c r="C12" t="n">
-        <v>0.006279333886950554</v>
+        <v>0.1286892396355497</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3566546595213358</v>
+        <v>-4.072210316442994e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1160179101890003</v>
+        <v>0.1032951550686697</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.968632075953864e-05</v>
+        <v>1.835045514069694e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.221441767935438</v>
+        <v>0.952475721486171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.720436061800158e-09</v>
+        <v>-0.02572045264641373</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8467747955766434</v>
+        <v>0.5711923436318205</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01685098114444421</v>
+        <v>0.09097326777127338</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7065125019095844</v>
+        <v>0.008065492903654959</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08945941028576219</v>
+        <v>2.180607757810348</v>
       </c>
       <c r="C17" t="n">
-        <v>0.009572882286926319</v>
+        <v>0.1412747891350823</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.034396792958236</v>
+        <v>-0.01051316635488729</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4777637375939384</v>
+        <v>0.1160437968532584</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01432705125351849</v>
+        <v>0.007769763833695646</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02993655929890848</v>
+        <v>0.3103579608760458</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.003833723548100982</v>
+        <v>-0.3251179856948854</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6125843829424489</v>
+        <v>0.7684907140240171</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.1895116543566281</v>
+        <v>-0.8486500916195244</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8632576678214585</v>
+        <v>0.3561339816728543</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.8352034266529946</v>
+        <v>0.6920081425506419</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3612880546069799</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.7443376226812797</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.357317290032355</v>
+        <v>0.4016770402556096</v>
       </c>
     </row>
   </sheetData>
@@ -1078,7 +1052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.611233345224764</v>
+        <v>-1.809931131333531</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1757978436219522</v>
+        <v>0.1198498304046012</v>
       </c>
     </row>
     <row r="3">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2620476620790408</v>
+        <v>-0.295831065827525</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2741111573839886</v>
+        <v>0.2007555088471432</v>
       </c>
     </row>
     <row r="4">
@@ -1136,257 +1110,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.4831151796561466</v>
+        <v>-0.4627698192864315</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009543896614309455</v>
+        <v>0.01138845180510903</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4740038050249164</v>
+        <v>-0.6101146025801848</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1658686615092488</v>
+        <v>0.001652167749580577</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6480689737074531</v>
+        <v>-0.2918827236841111</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0009243563082988759</v>
+        <v>0.3588395539942028</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3168555541701782</v>
+        <v>0.266066265877186</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7311247095970093</v>
+        <v>0.02180824800790852</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2591393496835557</v>
+        <v>0.0002699998797211975</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0308108166684616</v>
+        <v>5.310590694158421e-12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0002794089544789616</v>
+        <v>0.0103403041264074</v>
       </c>
       <c r="C9" t="n">
-        <v>1.838133453873349e-12</v>
+        <v>0.01701916625719096</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01005684137724991</v>
+        <v>0.1631140374595501</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01940290770003317</v>
+        <v>0.1928630237728624</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1150663913459295</v>
+        <v>0.4841278450283569</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3612646835097658</v>
+        <v>0.005982113901510708</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5475293600807664</v>
+        <v>0.3375219510837765</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002298920193843141</v>
+        <v>0.1347838872587097</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.370760294141516</v>
+        <v>-2.827095495882961e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1012390780839079</v>
+        <v>0.2403764963509438</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.422598201103288e-05</v>
+        <v>-6.918678328503616e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02867246426225094</v>
+        <v>0.8152746854319272</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.225963389093794e-09</v>
+        <v>-0.006540148803107897</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8098030306294224</v>
+        <v>0.8833085674230998</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.0005640831383215901</v>
+        <v>0.09835172091831219</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9899885296066568</v>
+        <v>0.004114787788114785</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08531400758390138</v>
+        <v>1.157508070843449</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01491964779287957</v>
+        <v>0.4216004199724485</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.192923552796588</v>
+        <v>-0.01157646759453437</v>
       </c>
       <c r="C18" t="n">
-        <v>0.415428580178535</v>
+        <v>0.07304869794912017</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01403788173421718</v>
+        <v>0.005764844285904997</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03281439721145176</v>
+        <v>0.440150654044455</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.005166659718060341</v>
+        <v>0.05506019173837787</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4960461756975209</v>
+        <v>0.9595965589063635</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8201666235809151</v>
+        <v>-0.5240457432414575</v>
       </c>
       <c r="C21" t="n">
-        <v>0.466364884064879</v>
+        <v>0.5615949846996304</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.08404953316825155</v>
+        <v>0.5739372865539197</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9274793882994548</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.277024514303857</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.7363857867044858</v>
+        <v>0.4739017169709288</v>
       </c>
     </row>
   </sheetData>
@@ -1400,7 +1361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.24623977449534</v>
+        <v>-1.765652712779249</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2917002536217967</v>
+        <v>0.1376511569911842</v>
       </c>
     </row>
     <row r="3">
@@ -1445,10 +1406,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2828705949527673</v>
+        <v>-0.3405595449937816</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2236154217582652</v>
+        <v>0.1383290189593001</v>
       </c>
     </row>
     <row r="4">
@@ -1458,257 +1419,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6695650341851416</v>
+        <v>-0.6421535428249502</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002970062993587989</v>
+        <v>0.0004726002155811947</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.464280559883307</v>
+        <v>-0.7254319177048687</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1665174365852192</v>
+        <v>0.0001787830638206399</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7500532755996587</v>
+        <v>-0.2963913050934804</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001119733937188642</v>
+        <v>0.3808421394574979</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.179415587061145</v>
+        <v>0.2433226120864377</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2141755538038909</v>
+        <v>0.03599537100228276</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2204078472256144</v>
+        <v>0.0002518788412138781</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05811364367354046</v>
+        <v>2.153803611965408e-10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0002361519550561417</v>
+        <v>0.01076878113398559</v>
       </c>
       <c r="C9" t="n">
-        <v>2.35529131475467e-09</v>
+        <v>0.01225924893846487</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.007935339896818465</v>
+        <v>0.2250929426920855</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06528544181038066</v>
+        <v>0.07595407813415701</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08087563242285008</v>
+        <v>0.6567826340688164</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5264768460365655</v>
+        <v>0.0002249775140778391</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4883898698372702</v>
+        <v>0.5940860007708961</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005682828162199212</v>
+        <v>0.008249401455747851</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3613528132795254</v>
+        <v>-3.586001567591528e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1106088864963073</v>
+        <v>0.1416512516790627</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.27000257698792e-05</v>
+        <v>-8.128425017108252e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08006273636022326</v>
+        <v>0.7872287031134149</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.347197943569433e-09</v>
+        <v>-0.004354466016226331</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9390094193245289</v>
+        <v>0.9231512998662349</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01122061866312091</v>
+        <v>0.07951515359462157</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8040136946281797</v>
+        <v>0.02020705738026132</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.09042468598158793</v>
+        <v>1.110244361915564</v>
       </c>
       <c r="C17" t="n">
-        <v>0.009018953376582619</v>
+        <v>0.4468799183446247</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.194091490535984</v>
+        <v>-0.009889414259323555</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4143419168289206</v>
+        <v>0.1345329249773783</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.008528083439422282</v>
+        <v>0.007065368257036459</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2024744329398337</v>
+        <v>0.3525782250336429</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.006250756605472561</v>
+        <v>0.4284023638124005</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4096729476316971</v>
+        <v>0.6965721185765689</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3506849635853128</v>
+        <v>-0.4199121013202036</v>
       </c>
       <c r="C21" t="n">
-        <v>0.748456697703282</v>
+        <v>0.6434828373963075</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.3032284096407676</v>
+        <v>0.1102659918442377</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7399445661078907</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.2004528005057173</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.8040222610359828</v>
+        <v>0.8907374808249037</v>
       </c>
     </row>
   </sheetData>
@@ -1722,7 +1670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1754,10 +1702,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.46348451693668</v>
+        <v>-1.361778525094991</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2194170740918329</v>
+        <v>0.2521440952562705</v>
       </c>
     </row>
     <row r="3">
@@ -1767,10 +1715,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.372142159205425</v>
+        <v>-0.2034078570692152</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1095051932387804</v>
+        <v>0.3903475344724985</v>
       </c>
     </row>
     <row r="4">
@@ -1780,257 +1728,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5185014166247476</v>
+        <v>-0.6344963724173611</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005018040048042765</v>
+        <v>0.0006718591453149362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4823089884689997</v>
+        <v>-0.7717110688444443</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1352622011273859</v>
+        <v>8.417923276133901e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6184366089508485</v>
+        <v>-0.5232196062269788</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001402786236223212</v>
+        <v>0.1111179304323168</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3956484400398602</v>
+        <v>0.1932326171175164</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6652746321445845</v>
+        <v>0.1011443816825408</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2725387011271823</v>
+        <v>0.0002783120529652078</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01823672459419375</v>
+        <v>5.202322891875125e-12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0002785855932590117</v>
+        <v>0.007256714231608108</v>
       </c>
       <c r="C9" t="n">
-        <v>4.310908157833921e-12</v>
+        <v>0.09306379654325503</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.00948080828875536</v>
+        <v>0.0537337335727107</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02644904915060967</v>
+        <v>0.6747626600066513</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03825713340245174</v>
+        <v>0.590651476683314</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7642272686471132</v>
+        <v>0.0008948480737696922</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.526721703376009</v>
+        <v>0.518583136766312</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003034057895813542</v>
+        <v>0.02319443710059763</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4216028220910597</v>
+        <v>-2.694193386408496e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06308997185710188</v>
+        <v>0.2703255463323179</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.035283222294817e-05</v>
+        <v>-1.27475928479951e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2146482614211607</v>
+        <v>0.6740891535486795</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.920239597867001e-09</v>
+        <v>-0.001918869641668864</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7451920065416726</v>
+        <v>0.9662008377612237</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01044962341784278</v>
+        <v>0.09435801729404716</v>
       </c>
       <c r="C16" t="n">
-        <v>0.81696639722251</v>
+        <v>0.008478525336014059</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.09164757411701278</v>
+        <v>0.5364888898741981</v>
       </c>
       <c r="C17" t="n">
-        <v>0.007159343802005902</v>
+        <v>0.7161848385053823</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8696189267737451</v>
+        <v>-0.01007997060056908</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5521739583917616</v>
+        <v>0.1325453823940673</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01038057785490829</v>
+        <v>0.006134455535631112</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1137469623744735</v>
+        <v>0.4218484743585016</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.004029842353375617</v>
+        <v>0.0007688972312712924</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5964627861515219</v>
+        <v>0.9994399125876855</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.7428984564234544</v>
+        <v>-0.213522148908549</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4936532579587095</v>
+        <v>0.8188591977042695</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.7497300413603947</v>
+        <v>0.3881638517654009</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4178546576129091</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.8826456921536265</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.2758669164832964</v>
+        <v>0.6344257197828689</v>
       </c>
     </row>
   </sheetData>
@@ -2044,7 +1979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2076,10 +2011,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.414961887515406</v>
+        <v>-1.179155420584393</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2323388734392402</v>
+        <v>0.3196393758839666</v>
       </c>
     </row>
     <row r="3">
@@ -2089,10 +2024,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3749600043276615</v>
+        <v>-0.2056472442102364</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1126023926835093</v>
+        <v>0.3777022184397765</v>
       </c>
     </row>
     <row r="4">
@@ -2102,257 +2037,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6190646025600529</v>
+        <v>-0.6263978398102189</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0009382987060326968</v>
+        <v>0.0006352068774187253</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4868308067999192</v>
+        <v>-0.6936327607850069</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1402865236433294</v>
+        <v>0.0002970476205019308</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6929868213758376</v>
+        <v>-0.6611239111871462</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0004465112099686001</v>
+        <v>0.04314883754081971</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3229327603341154</v>
+        <v>0.1962314655480712</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7310740184469201</v>
+        <v>0.08688915400595472</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.279923558112506</v>
+        <v>0.0003033284763416448</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02064757173781136</v>
+        <v>2.040626783980371e-14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0002736654760960643</v>
+        <v>0.01025974527593679</v>
       </c>
       <c r="C9" t="n">
-        <v>9.988611699077137e-12</v>
+        <v>0.01627601732939055</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.009753795244445952</v>
+        <v>0.08211437034990779</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02470739369121839</v>
+        <v>0.5147165529899667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1107920784668984</v>
+        <v>0.3998023211542244</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3841776299359781</v>
+        <v>0.02375541644903016</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5138830258130029</v>
+        <v>0.2988424903517442</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00429359995914096</v>
+        <v>0.1866345343215546</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3708817754487888</v>
+        <v>-4.058176434808294e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1022591019943229</v>
+        <v>0.0926478404570857</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.415316055007515e-05</v>
+        <v>7.390959103570233e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3238361805820299</v>
+        <v>0.8035142846300373</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.902312611234275e-08</v>
+        <v>0.006540630291635248</v>
       </c>
       <c r="C15" t="n">
-        <v>0.335854503771476</v>
+        <v>0.8847579949486916</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.03788605688163425</v>
+        <v>0.07985890767630534</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4000720586474291</v>
+        <v>0.0203427860667913</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08058119867349797</v>
+        <v>0.3827801385267349</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01930257954600602</v>
+        <v>0.7930342542256974</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9702600296659034</v>
+        <v>-0.01182145227084453</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5054178683832209</v>
+        <v>0.07561466407740583</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01044888482991125</v>
+        <v>0.004381534218710342</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1163135023350303</v>
+        <v>0.5643342472093619</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.006060009607163687</v>
+        <v>-0.1989100138523873</v>
       </c>
       <c r="C20" t="n">
-        <v>0.426047791859368</v>
+        <v>0.8566392570996729</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.05004138890279917</v>
+        <v>-0.4689564278234333</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9636267197372247</v>
+        <v>0.6095654452772008</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.3250627626845227</v>
+        <v>0.5461144771154131</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7226242445239012</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.4116627548439134</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.6118645144900074</v>
+        <v>0.5042893699215238</v>
       </c>
     </row>
   </sheetData>
@@ -2366,7 +2288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2398,10 +2320,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.15007024632566</v>
+        <v>-1.786537755108092</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07076234449009923</v>
+        <v>0.1293187254607503</v>
       </c>
     </row>
     <row r="3">
@@ -2411,10 +2333,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2036374556602695</v>
+        <v>-0.2957951687490772</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3907115238944474</v>
+        <v>0.2141599568190936</v>
       </c>
     </row>
     <row r="4">
@@ -2424,257 +2346,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6040851127128234</v>
+        <v>-0.6096718187792045</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001170519367524396</v>
+        <v>0.001061266428742279</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5111773551263386</v>
+        <v>-0.709581878910318</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1305111899225865</v>
+        <v>0.0002921366056195148</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7389868264229735</v>
+        <v>-0.4292832361209394</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001636409413388759</v>
+        <v>0.1795237162389669</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4869071272218203</v>
+        <v>0.254595107050452</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6124337885822995</v>
+        <v>0.03554627054960702</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1814045927006596</v>
+        <v>0.0002530144678439989</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1260611543795191</v>
+        <v>1.407063816331548e-10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0002947829663114759</v>
+        <v>0.008503469182804375</v>
       </c>
       <c r="C9" t="n">
-        <v>1.394457116554961e-13</v>
+        <v>0.04790784192664148</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.007628507294206441</v>
+        <v>0.05230400247614096</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07842954702782114</v>
+        <v>0.681401640409721</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.09036439720425463</v>
+        <v>0.4018808489172519</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4780290550254278</v>
+        <v>0.02383703687592411</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5084780195824439</v>
+        <v>0.2583809517868422</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004052027582257305</v>
+        <v>0.2532984039913642</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4608657859662205</v>
+        <v>-3.038632402465381e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0415803376762814</v>
+        <v>0.2128715370093245</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.199028725949055e-05</v>
+        <v>-7.316239269001518e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1861470168789875</v>
+        <v>0.808611059591393</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.715760458393377e-08</v>
+        <v>-0.02087087197753222</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5643633656078539</v>
+        <v>0.6428952792157998</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01829538025980149</v>
+        <v>0.09622025015049808</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6876566467367013</v>
+        <v>0.004786200976042096</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.09103037093404558</v>
+        <v>2.398881479396044</v>
       </c>
       <c r="C17" t="n">
-        <v>0.008578804717111338</v>
+        <v>0.1020993328638694</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.026578186132521</v>
+        <v>-0.009933798773187253</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1692350535615674</v>
+        <v>0.133515836257995</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01336438805393662</v>
+        <v>0.009044207368636609</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04403447550453624</v>
+        <v>0.2317801310738062</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01150105232257371</v>
+        <v>0.00592077306723103</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1311321264428779</v>
+        <v>0.9956762578993472</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.03994017713640153</v>
+        <v>-0.4875386612138756</v>
       </c>
       <c r="C21" t="n">
-        <v>0.971029106116761</v>
+        <v>0.5956052392447451</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.6506532971097012</v>
+        <v>0.4462399182069603</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4755304225225957</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.5287005058817005</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.5174483886956665</v>
+        <v>0.581005297097836</v>
       </c>
     </row>
   </sheetData>
@@ -2688,7 +2597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2720,10 +2629,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.302842428384987</v>
+        <v>-1.701320401766971</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05080310631609104</v>
+        <v>0.1525590015589237</v>
       </c>
     </row>
     <row r="3">
@@ -2733,10 +2642,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.4151977960653631</v>
+        <v>-0.3934165260677112</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07769346688615891</v>
+        <v>0.1021812250229315</v>
       </c>
     </row>
     <row r="4">
@@ -2746,257 +2655,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5196088313243573</v>
+        <v>-0.5383196123951456</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004722346366259727</v>
+        <v>0.004099386415501073</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4252358919907229</v>
+        <v>-0.6258499923212735</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2220733694516669</v>
+        <v>0.001539769215634221</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5799141897412784</v>
+        <v>-0.3565537635613838</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002962167425983394</v>
+        <v>0.2608621960492998</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2510778986947074</v>
+        <v>0.2817863096950158</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7890150041105701</v>
+        <v>0.01967395089706604</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2939508043619383</v>
+        <v>0.0003123407754424562</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01231200128106051</v>
+        <v>9.855482886740759e-15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0002890117378618445</v>
+        <v>0.009234521568438972</v>
       </c>
       <c r="C9" t="n">
-        <v>2.936678942389369e-13</v>
+        <v>0.03299884382925276</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01101738093173922</v>
+        <v>0.07148286395338881</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01009399156003594</v>
+        <v>0.5747208063969098</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1777394628082677</v>
+        <v>0.3877984010221884</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1597340967024935</v>
+        <v>0.0332772455335424</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.506192781669468</v>
+        <v>0.2586459413987264</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005043169631357014</v>
+        <v>0.2586963181848652</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3380409331172938</v>
+        <v>-4.180979737649198e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1360483458496359</v>
+        <v>0.09028920025789283</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.456814908181124e-05</v>
+        <v>1.826114781816418e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06794911374256017</v>
+        <v>0.5470021717753858</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.385006410390748e-08</v>
+        <v>0.03077832237803787</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6478355492592536</v>
+        <v>0.4957345487144046</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0005442692912285526</v>
+        <v>0.09685757078969899</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9903481504157827</v>
+        <v>0.005433674968943042</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.07922716742917234</v>
+        <v>1.278648163207149</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02109049312112501</v>
+        <v>0.3803391079023184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.690755481565251</v>
+        <v>-0.009728215534851131</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2461819522131237</v>
+        <v>0.1421765177093202</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.009342697296567701</v>
+        <v>0.004312613868969003</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1543115105037529</v>
+        <v>0.5700692394891094</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.009961340058503868</v>
+        <v>-0.05152770353200395</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1882007457474406</v>
+        <v>0.963017285786924</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6267325167515124</v>
+        <v>-0.6646057210284695</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5684678969028782</v>
+        <v>0.4729696491913519</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.2692834997913038</v>
+        <v>0.6006794461916112</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7686089988277932</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.1766589746775603</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.8277745840029694</v>
+        <v>0.4635184586068597</v>
       </c>
     </row>
   </sheetData>
@@ -3010,7 +2906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3042,10 +2938,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.070224062277687</v>
+        <v>-2.046723948736686</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07804131240998571</v>
+        <v>0.08336926175002397</v>
       </c>
     </row>
     <row r="3">
@@ -3055,10 +2951,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3133430669097581</v>
+        <v>-0.354254569610397</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1733877230113715</v>
+        <v>0.1232264281250923</v>
       </c>
     </row>
     <row r="4">
@@ -3068,257 +2964,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6420417851202466</v>
+        <v>-0.6383096438520691</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004657228267521884</v>
+        <v>0.0004717797769288117</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4915984116375955</v>
+        <v>-0.5909780017971555</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1483586951753056</v>
+        <v>0.002306406357955833</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6350253915159474</v>
+        <v>-0.6173201713153861</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001065114707864731</v>
+        <v>0.04583685319392706</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4570465007763873</v>
+        <v>0.2456932761134548</v>
       </c>
       <c r="C7" t="n">
-        <v>0.704361916096559</v>
+        <v>0.03151077679303774</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2193965244314103</v>
+        <v>0.0002450601041750697</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05750557014175717</v>
+        <v>5.535451851391027e-10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0002720366086127418</v>
+        <v>0.00948530038835442</v>
       </c>
       <c r="C9" t="n">
-        <v>6.860504624068173e-12</v>
+        <v>0.02792627386982384</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.009421606042202628</v>
+        <v>0.06522679978222348</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02957260580834549</v>
+        <v>0.6069564287612648</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1190048754094377</v>
+        <v>0.5425823203157967</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3472809741042346</v>
+        <v>0.002097041549020685</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4686835955326925</v>
+        <v>0.301579442488667</v>
       </c>
       <c r="C12" t="n">
-        <v>0.007481512636907765</v>
+        <v>0.1802236957184714</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3855595727353782</v>
+        <v>-4.507205699795029e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08837394737959804</v>
+        <v>0.06343474223953401</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.970462605775556e-05</v>
+        <v>1.060216911178215e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2165068011270547</v>
+        <v>0.7242577384150868</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.625159726067785e-09</v>
+        <v>-0.003845084386752877</v>
       </c>
       <c r="C15" t="n">
-        <v>0.929555807402873</v>
+        <v>0.9319216097461781</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01728595580167216</v>
+        <v>0.08361209043904698</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7013407772384583</v>
+        <v>0.01527812998402639</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1051251985120312</v>
+        <v>1.923111547650361</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002415867452848842</v>
+        <v>0.1914431214860111</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.483630680471171</v>
+        <v>-0.01100895140790247</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09151616090191612</v>
+        <v>0.09437604399384719</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.007417923535128471</v>
+        <v>0.01094840976910524</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2582354420600943</v>
+        <v>0.1509172671493698</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.008158950191370501</v>
+        <v>0.1456216293282997</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2826583424257892</v>
+        <v>0.8931585246178926</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.3241223379261076</v>
+        <v>-0.6971271989949819</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7643287436449598</v>
+        <v>0.4434345461877006</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.6537176803853396</v>
+        <v>0.5062364194946228</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4740148487298407</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.5823698094084547</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.4705266204591192</v>
+        <v>0.5294583556456204</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR/Düsseldorf.xlsx
+++ b/outputs/ML_Results/carown_LR/Düsseldorf.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ6" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ8" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ7" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ20" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ5" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ0" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ26" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ2" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ38" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ5" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ0" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ11" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ10" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ3" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.561107102235817</v>
+        <v>-1.208511429276684</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1863711247180394</v>
+        <v>0.3648035582433746</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2959038819703454</v>
+        <v>-0.1803934923435788</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2036353415748227</v>
+        <v>0.5325351500960895</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5451561926411252</v>
+        <v>-0.5784152501010675</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003134734190696873</v>
+        <v>0.006500402861944399</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5645230156616982</v>
+        <v>-0.6349424010968406</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003614754958364265</v>
+        <v>0.003923214549570322</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4533414806867941</v>
+        <v>-0.3682913621529903</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1692045837203476</v>
+        <v>0.2948592930609906</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2458881417272878</v>
+        <v>0.2510694744637843</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03322892915285573</v>
+        <v>0.08086893200165537</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0002810456823046681</v>
+        <v>0.00050712119548373</v>
       </c>
       <c r="C8" t="n">
-        <v>1.047287118315182e-12</v>
+        <v>1.559332920272018e-25</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.005616380325670633</v>
+        <v>0.008497014865138923</v>
       </c>
       <c r="C9" t="n">
-        <v>0.189905445122192</v>
+        <v>0.07570601474320307</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06527141120323494</v>
+        <v>-0.01058851679628893</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6060211297335083</v>
+        <v>0.9386513274375926</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4721983981207523</v>
+        <v>0.5947055596898402</v>
       </c>
       <c r="C11" t="n">
-        <v>0.007514895727045273</v>
+        <v>0.001792109610642233</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5228079841184144</v>
+        <v>0.2341736922501507</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0199856573329628</v>
+        <v>0.341927950917743</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.234180901693935e-05</v>
+        <v>-5.662736420757604e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1801414604896185</v>
+        <v>0.02806337491909065</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.403739894957436e-09</v>
+        <v>-5.82349080939675e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9622133981327127</v>
+        <v>0.8494718674062836</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.01068210983427728</v>
+        <v>0.01351156109207809</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8119965317041752</v>
+        <v>0.7832071447911569</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.09056739723823189</v>
+        <v>0.08478756486935517</v>
       </c>
       <c r="C16" t="n">
-        <v>0.007924495869553076</v>
+        <v>0.01245272494398361</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.689218966806128</v>
+        <v>1.396187054643594</v>
       </c>
       <c r="C17" t="n">
-        <v>0.24807526860485</v>
+        <v>0.390333718179771</v>
       </c>
     </row>
     <row r="18">
@@ -674,23 +674,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.010187957071061</v>
+        <v>-0.005580299018734783</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1228804004083258</v>
+        <v>0.4660432272727042</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.00626164675688018</v>
+        <v>0.00307193215491784</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4084340883819416</v>
+        <v>0.7182371163574114</v>
       </c>
     </row>
     <row r="20">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.125867966979031</v>
+        <v>-0.313084704986604</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9083867573894806</v>
+        <v>0.6540356810114093</v>
       </c>
     </row>
     <row r="21">
@@ -713,23 +713,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.4664014055142731</v>
+        <v>0.02146807917810796</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6131875072880085</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.6219039586184034</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.443680673490854</v>
+        <v>0.9708256071208975</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +730,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.597862579570731</v>
+        <v>-1.545549697762445</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1799314066762677</v>
+        <v>0.246668210082744</v>
       </c>
     </row>
     <row r="3">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.327124452311744</v>
+        <v>-0.2138951607676538</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1669082742383052</v>
+        <v>0.458307676897206</v>
       </c>
     </row>
     <row r="4">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6757227394371704</v>
+        <v>-0.4899787503970911</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000304421302144263</v>
+        <v>0.02340200492811008</v>
       </c>
     </row>
     <row r="5">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7722354710615541</v>
+        <v>-0.5596434844623394</v>
       </c>
       <c r="C5" t="n">
-        <v>8.469916986489827e-05</v>
+        <v>0.01328493095682154</v>
       </c>
     </row>
     <row r="6">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3893103719634208</v>
+        <v>-0.4568874663095736</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2225113097656066</v>
+        <v>0.2010823251619885</v>
       </c>
     </row>
     <row r="7">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2048456997543164</v>
+        <v>0.2758844545223895</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08603774807932993</v>
+        <v>0.06542982007118747</v>
       </c>
     </row>
     <row r="8">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0002864484049429901</v>
+        <v>0.0004963757426945524</v>
       </c>
       <c r="C8" t="n">
-        <v>1.658221877380916e-12</v>
+        <v>2.911270792265136e-25</v>
       </c>
     </row>
     <row r="9">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.009014548407271627</v>
+        <v>0.009361237264078814</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03804865252027996</v>
+        <v>0.04977111649248817</v>
       </c>
     </row>
     <row r="10">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06830302765152946</v>
+        <v>-0.07519490516331377</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5921437540839841</v>
+        <v>0.5857238988728422</v>
       </c>
     </row>
     <row r="11">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.492735702029518</v>
+        <v>0.6265654630782985</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005256422197573166</v>
+        <v>0.0008763001229296218</v>
       </c>
     </row>
     <row r="12">
@@ -905,10 +892,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3426560960583885</v>
+        <v>0.2180561611236962</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1286892396355497</v>
+        <v>0.369828427847853</v>
       </c>
     </row>
     <row r="13">
@@ -918,10 +905,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.072210316442994e-05</v>
+        <v>-6.198518673765901e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1032951550686697</v>
+        <v>0.01779746035463716</v>
       </c>
     </row>
     <row r="14">
@@ -931,10 +918,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.835045514069694e-09</v>
+        <v>2.096910741974832e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.952475721486171</v>
+        <v>0.5051785493642305</v>
       </c>
     </row>
     <row r="15">
@@ -944,10 +931,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02572045264641373</v>
+        <v>0.06162421607380421</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5711923436318205</v>
+        <v>0.2152174231589405</v>
       </c>
     </row>
     <row r="16">
@@ -957,10 +944,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.09097326777127338</v>
+        <v>0.1269710540146341</v>
       </c>
       <c r="C16" t="n">
-        <v>0.008065492903654959</v>
+        <v>0.0002224250056311896</v>
       </c>
     </row>
     <row r="17">
@@ -970,10 +957,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.180607757810348</v>
+        <v>2.617994825712556</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1412747891350823</v>
+        <v>0.10892297048577</v>
       </c>
     </row>
     <row r="18">
@@ -983,23 +970,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01051316635488729</v>
+        <v>-0.002609140679519987</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1160437968532584</v>
+        <v>0.729328100278245</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.007769763833695646</v>
+        <v>-0.0001840741800928264</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3103579608760458</v>
+        <v>0.982770286550029</v>
       </c>
     </row>
     <row r="20">
@@ -1009,10 +996,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.3251179856948854</v>
+        <v>-0.275398558521183</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7684907140240171</v>
+        <v>0.6918376723653203</v>
       </c>
     </row>
     <row r="21">
@@ -1022,23 +1009,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.8486500916195244</v>
+        <v>-0.3353880778343419</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3561339816728543</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.6920081425506419</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.4016770402556096</v>
+        <v>0.5727528389973318</v>
       </c>
     </row>
   </sheetData>
@@ -1052,7 +1026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.809931131333531</v>
+        <v>-1.948160670452912</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1198498304046012</v>
+        <v>0.142307254730264</v>
       </c>
     </row>
     <row r="3">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.295831065827525</v>
+        <v>0.06638858125458957</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2007555088471432</v>
+        <v>0.8218979537024532</v>
       </c>
     </row>
     <row r="4">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.4627698192864315</v>
+        <v>-0.6135854437995872</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01138845180510903</v>
+        <v>0.003537294161030785</v>
       </c>
     </row>
     <row r="5">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6101146025801848</v>
+        <v>-0.6132766172303616</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001652167749580577</v>
+        <v>0.005594690863110714</v>
       </c>
     </row>
     <row r="6">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2918827236841111</v>
+        <v>-0.3811461332361865</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3588395539942028</v>
+        <v>0.2853380392591771</v>
       </c>
     </row>
     <row r="7">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.266066265877186</v>
+        <v>0.2014177694100888</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02180824800790852</v>
+        <v>0.1585554376069737</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0002699998797211975</v>
+        <v>0.0005255047155013583</v>
       </c>
       <c r="C8" t="n">
-        <v>5.310590694158421e-12</v>
+        <v>9.867682049778345e-27</v>
       </c>
     </row>
     <row r="9">
@@ -1175,10 +1149,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0103403041264074</v>
+        <v>0.007599933816155457</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01701916625719096</v>
+        <v>0.1102422970100859</v>
       </c>
     </row>
     <row r="10">
@@ -1188,10 +1162,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1631140374595501</v>
+        <v>0.02158463155946875</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1928630237728624</v>
+        <v>0.875263168474696</v>
       </c>
     </row>
     <row r="11">
@@ -1201,10 +1175,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4841278450283569</v>
+        <v>0.689536934285629</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005982113901510708</v>
+        <v>0.0002305874798377344</v>
       </c>
     </row>
     <row r="12">
@@ -1214,10 +1188,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3375219510837765</v>
+        <v>0.3378110280079548</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1347838872587097</v>
+        <v>0.161986968716797</v>
       </c>
     </row>
     <row r="13">
@@ -1227,10 +1201,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.827095495882961e-05</v>
+        <v>-8.18264177571811e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2403764963509438</v>
+        <v>0.002232968131263127</v>
       </c>
     </row>
     <row r="14">
@@ -1240,10 +1214,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.918678328503616e-09</v>
+        <v>1.699527399895892e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8152746854319272</v>
+        <v>0.5871254050395139</v>
       </c>
     </row>
     <row r="15">
@@ -1253,10 +1227,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.006540148803107897</v>
+        <v>0.007081755889873285</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8833085674230998</v>
+        <v>0.8861274070953923</v>
       </c>
     </row>
     <row r="16">
@@ -1266,10 +1240,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.09835172091831219</v>
+        <v>0.1085100480677959</v>
       </c>
       <c r="C16" t="n">
-        <v>0.004114787788114785</v>
+        <v>0.001291765291771929</v>
       </c>
     </row>
     <row r="17">
@@ -1279,10 +1253,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.157508070843449</v>
+        <v>2.292762427678142</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4216004199724485</v>
+        <v>0.152623561708769</v>
       </c>
     </row>
     <row r="18">
@@ -1292,23 +1266,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01157646759453437</v>
+        <v>-0.0057410412624169</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07304869794912017</v>
+        <v>0.4445565699226524</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.005764844285904997</v>
+        <v>0.005992291356254985</v>
       </c>
       <c r="C19" t="n">
-        <v>0.440150654044455</v>
+        <v>0.4784435750785206</v>
       </c>
     </row>
     <row r="20">
@@ -1318,10 +1292,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.05506019173837787</v>
+        <v>0.6428702242549411</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9595965589063635</v>
+        <v>0.3590214386909032</v>
       </c>
     </row>
     <row r="21">
@@ -1331,23 +1305,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.5240457432414575</v>
+        <v>-0.592944829505865</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5615949846996304</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.5739372865539197</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.4739017169709288</v>
+        <v>0.3082767294008685</v>
       </c>
     </row>
   </sheetData>
@@ -1361,7 +1322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.765652712779249</v>
+        <v>-2.305779887516413</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1376511569911842</v>
+        <v>0.08185053748082713</v>
       </c>
     </row>
     <row r="3">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3405595449937816</v>
+        <v>-0.1568821247352234</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1383290189593001</v>
+        <v>0.5831479098673089</v>
       </c>
     </row>
     <row r="4">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6421535428249502</v>
+        <v>-0.5140151054485963</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004726002155811947</v>
+        <v>0.01472070487481775</v>
       </c>
     </row>
     <row r="5">
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7254319177048687</v>
+        <v>-0.6463318256617641</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001787830638206399</v>
+        <v>0.003444533001672051</v>
       </c>
     </row>
     <row r="6">
@@ -1445,10 +1406,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2963913050934804</v>
+        <v>-0.5094100434221226</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3808421394574979</v>
+        <v>0.133410114030642</v>
       </c>
     </row>
     <row r="7">
@@ -1458,10 +1419,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2433226120864377</v>
+        <v>0.2568675474253251</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03599537100228276</v>
+        <v>0.07074774811394302</v>
       </c>
     </row>
     <row r="8">
@@ -1471,10 +1432,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0002518788412138781</v>
+        <v>0.0004816323883960095</v>
       </c>
       <c r="C8" t="n">
-        <v>2.153803611965408e-10</v>
+        <v>7.76774073019689e-24</v>
       </c>
     </row>
     <row r="9">
@@ -1484,10 +1445,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01076878113398559</v>
+        <v>0.01153798771994358</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01225924893846487</v>
+        <v>0.01541809562575169</v>
       </c>
     </row>
     <row r="10">
@@ -1497,10 +1458,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2250929426920855</v>
+        <v>0.06861089528040809</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07595407813415701</v>
+        <v>0.6164160746706175</v>
       </c>
     </row>
     <row r="11">
@@ -1510,10 +1471,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6567826340688164</v>
+        <v>0.6661713092575826</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0002249775140778391</v>
+        <v>0.000400944680832676</v>
       </c>
     </row>
     <row r="12">
@@ -1523,10 +1484,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5940860007708961</v>
+        <v>0.196775945908252</v>
       </c>
       <c r="C12" t="n">
-        <v>0.008249401455747851</v>
+        <v>0.4155206526855978</v>
       </c>
     </row>
     <row r="13">
@@ -1536,10 +1497,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.586001567591528e-05</v>
+        <v>-5.004032818406614e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1416512516790627</v>
+        <v>0.05321565777843774</v>
       </c>
     </row>
     <row r="14">
@@ -1549,10 +1510,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8.128425017108252e-09</v>
+        <v>-1.592143537836967e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7872287031134149</v>
+        <v>0.959183178494771</v>
       </c>
     </row>
     <row r="15">
@@ -1562,10 +1523,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.004354466016226331</v>
+        <v>0.02835893344959076</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9231512998662349</v>
+        <v>0.5659665513130298</v>
       </c>
     </row>
     <row r="16">
@@ -1575,10 +1536,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.07951515359462157</v>
+        <v>0.1185266083839867</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02020705738026132</v>
+        <v>0.0005959956718728316</v>
       </c>
     </row>
     <row r="17">
@@ -1588,10 +1549,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.110244361915564</v>
+        <v>2.683812252658051</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4468799183446247</v>
+        <v>0.09841310146664188</v>
       </c>
     </row>
     <row r="18">
@@ -1601,23 +1562,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.009889414259323555</v>
+        <v>-0.005731259207237257</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1345329249773783</v>
+        <v>0.4504281304087165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.007065368257036459</v>
+        <v>0.007538489074646924</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3525782250336429</v>
+        <v>0.3719741096432607</v>
       </c>
     </row>
     <row r="20">
@@ -1627,10 +1588,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4284023638124005</v>
+        <v>-0.02322459999329838</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6965721185765689</v>
+        <v>0.9733911443526821</v>
       </c>
     </row>
     <row r="21">
@@ -1640,23 +1601,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.4199121013202036</v>
+        <v>-0.3838163629567677</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6434828373963075</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.1102659918442377</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.8907374808249037</v>
+        <v>0.5100126932135297</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1702,10 +1650,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.361778525094991</v>
+        <v>-2.243934949145964</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2521440952562705</v>
+        <v>0.09547530100612443</v>
       </c>
     </row>
     <row r="3">
@@ -1715,10 +1663,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2034078570692152</v>
+        <v>-0.2156487093821143</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3903475344724985</v>
+        <v>0.4769379510786333</v>
       </c>
     </row>
     <row r="4">
@@ -1728,10 +1676,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6344963724173611</v>
+        <v>-0.5382126424906842</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0006718591453149362</v>
+        <v>0.01537467817520871</v>
       </c>
     </row>
     <row r="5">
@@ -1741,10 +1689,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7717110688444443</v>
+        <v>-0.5801908440186146</v>
       </c>
       <c r="C5" t="n">
-        <v>8.417923276133901e-05</v>
+        <v>0.01257793389895022</v>
       </c>
     </row>
     <row r="6">
@@ -1754,10 +1702,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5232196062269788</v>
+        <v>-0.5370145280891087</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1111179304323168</v>
+        <v>0.1335935431041417</v>
       </c>
     </row>
     <row r="7">
@@ -1767,10 +1715,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1932326171175164</v>
+        <v>0.3300087002107472</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1011443816825408</v>
+        <v>0.03565498979342356</v>
       </c>
     </row>
     <row r="8">
@@ -1780,10 +1728,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0002783120529652078</v>
+        <v>0.0004934308423529847</v>
       </c>
       <c r="C8" t="n">
-        <v>5.202322891875125e-12</v>
+        <v>2.408487451149946e-23</v>
       </c>
     </row>
     <row r="9">
@@ -1793,10 +1741,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.007256714231608108</v>
+        <v>0.009541472465294897</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09306379654325503</v>
+        <v>0.0485809720847983</v>
       </c>
     </row>
     <row r="10">
@@ -1806,10 +1754,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0537337335727107</v>
+        <v>0.04779634542267</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6747626600066513</v>
+        <v>0.7310991565947573</v>
       </c>
     </row>
     <row r="11">
@@ -1819,10 +1767,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.590651476683314</v>
+        <v>0.7547719664303377</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0008948480737696922</v>
+        <v>8.087839798146295e-05</v>
       </c>
     </row>
     <row r="12">
@@ -1832,10 +1780,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.518583136766312</v>
+        <v>0.2998559437982312</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02319443710059763</v>
+        <v>0.2210074649705169</v>
       </c>
     </row>
     <row r="13">
@@ -1845,10 +1793,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.694193386408496e-05</v>
+        <v>-4.633470181880416e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2703255463323179</v>
+        <v>0.07471044862035721</v>
       </c>
     </row>
     <row r="14">
@@ -1858,10 +1806,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.27475928479951e-08</v>
+        <v>3.162058426451745e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6740891535486795</v>
+        <v>0.9193026076753735</v>
       </c>
     </row>
     <row r="15">
@@ -1871,10 +1819,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001918869641668864</v>
+        <v>0.04782179485002114</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9662008377612237</v>
+        <v>0.3417016770653944</v>
       </c>
     </row>
     <row r="16">
@@ -1884,10 +1832,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.09435801729404716</v>
+        <v>0.1197530407439521</v>
       </c>
       <c r="C16" t="n">
-        <v>0.008478525336014059</v>
+        <v>0.0005678219369809006</v>
       </c>
     </row>
     <row r="17">
@@ -1897,10 +1845,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5364888898741981</v>
+        <v>3.089268282773199</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7161848385053823</v>
+        <v>0.05894278874746273</v>
       </c>
     </row>
     <row r="18">
@@ -1910,23 +1858,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01007997060056908</v>
+        <v>-0.0007681723330367729</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1325453823940673</v>
+        <v>0.920891541362383</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.006134455535631112</v>
+        <v>0.005136624863030022</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4218484743585016</v>
+        <v>0.546575588383305</v>
       </c>
     </row>
     <row r="20">
@@ -1936,10 +1884,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0007688972312712924</v>
+        <v>-0.6468329615979476</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9994399125876855</v>
+        <v>0.3565365541535152</v>
       </c>
     </row>
     <row r="21">
@@ -1949,23 +1897,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.213522148908549</v>
+        <v>-0.5285223166130971</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8188591977042695</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.3881638517654009</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.6344257197828689</v>
+        <v>0.364207090201348</v>
       </c>
     </row>
   </sheetData>
@@ -1979,7 +1914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2011,10 +1946,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.179155420584393</v>
+        <v>-1.95336926752722</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3196393758839666</v>
+        <v>0.1378965293308488</v>
       </c>
     </row>
     <row r="3">
@@ -2024,10 +1959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2056472442102364</v>
+        <v>-0.1798241800364487</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3777022184397765</v>
+        <v>0.5280711422521434</v>
       </c>
     </row>
     <row r="4">
@@ -2037,10 +1972,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6263978398102189</v>
+        <v>-0.5330692136559815</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0006352068774187253</v>
+        <v>0.01090462852362926</v>
       </c>
     </row>
     <row r="5">
@@ -2050,10 +1985,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6936327607850069</v>
+        <v>-0.6271568768293203</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002970476205019308</v>
+        <v>0.004399253838408134</v>
       </c>
     </row>
     <row r="6">
@@ -2063,10 +1998,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6611239111871462</v>
+        <v>-0.4990843753564941</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04314883754081971</v>
+        <v>0.156986916215464</v>
       </c>
     </row>
     <row r="7">
@@ -2076,10 +2011,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1962314655480712</v>
+        <v>0.2460773661611823</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08688915400595472</v>
+        <v>0.08203181566374208</v>
       </c>
     </row>
     <row r="8">
@@ -2089,10 +2024,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003033284763416448</v>
+        <v>0.0004935089674234283</v>
       </c>
       <c r="C8" t="n">
-        <v>2.040626783980371e-14</v>
+        <v>9.320946273011529e-25</v>
       </c>
     </row>
     <row r="9">
@@ -2102,10 +2037,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01025974527593679</v>
+        <v>0.008912798198268025</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01627601732939055</v>
+        <v>0.06067312280715074</v>
       </c>
     </row>
     <row r="10">
@@ -2115,10 +2050,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.08211437034990779</v>
+        <v>-0.03338715990997555</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5147165529899667</v>
+        <v>0.8086590274763485</v>
       </c>
     </row>
     <row r="11">
@@ -2128,10 +2063,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3998023211542244</v>
+        <v>0.6322509046612702</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02375541644903016</v>
+        <v>0.0009384791583124212</v>
       </c>
     </row>
     <row r="12">
@@ -2141,10 +2076,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2988424903517442</v>
+        <v>0.1986741953430593</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1866345343215546</v>
+        <v>0.4138735964246042</v>
       </c>
     </row>
     <row r="13">
@@ -2154,10 +2089,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.058176434808294e-05</v>
+        <v>-4.683452880530393e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0926478404570857</v>
+        <v>0.07267073682577829</v>
       </c>
     </row>
     <row r="14">
@@ -2167,10 +2102,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.390959103570233e-09</v>
+        <v>1.365014754745949e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8035142846300373</v>
+        <v>0.6589453467491426</v>
       </c>
     </row>
     <row r="15">
@@ -2180,10 +2115,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.006540630291635248</v>
+        <v>0.01559151327908001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8847579949486916</v>
+        <v>0.7513853497326806</v>
       </c>
     </row>
     <row r="16">
@@ -2193,10 +2128,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.07985890767630534</v>
+        <v>0.1265438382361015</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0203427860667913</v>
+        <v>0.0001969360929468159</v>
       </c>
     </row>
     <row r="17">
@@ -2206,10 +2141,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3827801385267349</v>
+        <v>2.822685865663412</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7930342542256974</v>
+        <v>0.08530296029321321</v>
       </c>
     </row>
     <row r="18">
@@ -2219,23 +2154,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01182145227084453</v>
+        <v>-0.006595598471774791</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07561466407740583</v>
+        <v>0.374574589474521</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.004381534218710342</v>
+        <v>0.005637536049226682</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5643342472093619</v>
+        <v>0.5035637061853201</v>
       </c>
     </row>
     <row r="20">
@@ -2245,10 +2180,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.1989100138523873</v>
+        <v>-0.1085052229831149</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8566392570996729</v>
+        <v>0.8746201556483444</v>
       </c>
     </row>
     <row r="21">
@@ -2258,23 +2193,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.4689564278234333</v>
+        <v>-0.3195730990422483</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6095654452772008</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.5461144771154131</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5042893699215238</v>
+        <v>0.5776856090415432</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2320,10 +2242,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.786537755108092</v>
+        <v>-1.264997950756201</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1293187254607503</v>
+        <v>0.3457485026060095</v>
       </c>
     </row>
     <row r="3">
@@ -2333,10 +2255,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2957951687490772</v>
+        <v>-0.2277536688022952</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2141599568190936</v>
+        <v>0.4352136827678421</v>
       </c>
     </row>
     <row r="4">
@@ -2346,10 +2268,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6096718187792045</v>
+        <v>-0.5653389847309567</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001061266428742279</v>
+        <v>0.008563430280604665</v>
       </c>
     </row>
     <row r="5">
@@ -2359,10 +2281,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.709581878910318</v>
+        <v>-0.5664021620236557</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002921366056195148</v>
+        <v>0.01145367039812788</v>
       </c>
     </row>
     <row r="6">
@@ -2372,10 +2294,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4292832361209394</v>
+        <v>-0.2874931259058655</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1795237162389669</v>
+        <v>0.4137240576725468</v>
       </c>
     </row>
     <row r="7">
@@ -2385,10 +2307,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.254595107050452</v>
+        <v>0.2904107558519265</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03554627054960702</v>
+        <v>0.04952476652515633</v>
       </c>
     </row>
     <row r="8">
@@ -2398,10 +2320,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0002530144678439989</v>
+        <v>0.0005023900016445131</v>
       </c>
       <c r="C8" t="n">
-        <v>1.407063816331548e-10</v>
+        <v>3.949499849640381e-25</v>
       </c>
     </row>
     <row r="9">
@@ -2411,10 +2333,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.008503469182804375</v>
+        <v>0.009816219482805588</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04790784192664148</v>
+        <v>0.04061744730341262</v>
       </c>
     </row>
     <row r="10">
@@ -2424,10 +2346,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05230400247614096</v>
+        <v>-0.01716380448690352</v>
       </c>
       <c r="C10" t="n">
-        <v>0.681401640409721</v>
+        <v>0.9007742899555718</v>
       </c>
     </row>
     <row r="11">
@@ -2437,10 +2359,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4018808489172519</v>
+        <v>0.7639921229189819</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02383703687592411</v>
+        <v>4.839766336128112e-05</v>
       </c>
     </row>
     <row r="12">
@@ -2450,10 +2372,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2583809517868422</v>
+        <v>0.2781775905962146</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2532984039913642</v>
+        <v>0.2462595986927041</v>
       </c>
     </row>
     <row r="13">
@@ -2463,10 +2385,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.038632402465381e-05</v>
+        <v>-6.042107880972548e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2128715370093245</v>
+        <v>0.0206561414070032</v>
       </c>
     </row>
     <row r="14">
@@ -2476,10 +2398,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.316239269001518e-09</v>
+        <v>2.256734252769587e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.808611059591393</v>
+        <v>0.4725831632448262</v>
       </c>
     </row>
     <row r="15">
@@ -2489,10 +2411,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02087087197753222</v>
+        <v>0.05215576831785119</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6428952792157998</v>
+        <v>0.2966112374856117</v>
       </c>
     </row>
     <row r="16">
@@ -2502,10 +2424,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.09622025015049808</v>
+        <v>0.1078679651295714</v>
       </c>
       <c r="C16" t="n">
-        <v>0.004786200976042096</v>
+        <v>0.001653711845330426</v>
       </c>
     </row>
     <row r="17">
@@ -2515,10 +2437,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.398881479396044</v>
+        <v>1.959590797007318</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1020993328638694</v>
+        <v>0.2248992184408927</v>
       </c>
     </row>
     <row r="18">
@@ -2528,23 +2450,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.009933798773187253</v>
+        <v>-0.008429788412275523</v>
       </c>
       <c r="C18" t="n">
-        <v>0.133515836257995</v>
+        <v>0.2646596336983089</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.009044207368636609</v>
+        <v>-0.0006976587423623577</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2317801310738062</v>
+        <v>0.9346037099590631</v>
       </c>
     </row>
     <row r="20">
@@ -2554,10 +2476,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.00592077306723103</v>
+        <v>-0.1079726628863033</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9956762578993472</v>
+        <v>0.8753988134457655</v>
       </c>
     </row>
     <row r="21">
@@ -2567,23 +2489,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.4875386612138756</v>
+        <v>-0.727264537272208</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5956052392447451</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.4462399182069603</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.581005297097836</v>
+        <v>0.21090341962295</v>
       </c>
     </row>
   </sheetData>
@@ -2597,7 +2506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2629,10 +2538,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.701320401766971</v>
+        <v>-1.490167937195062</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1525590015589237</v>
+        <v>0.2670529938855229</v>
       </c>
     </row>
     <row r="3">
@@ -2642,10 +2551,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3934165260677112</v>
+        <v>-0.0760620871508344</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1021812250229315</v>
+        <v>0.796897760234079</v>
       </c>
     </row>
     <row r="4">
@@ -2655,10 +2564,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5383196123951456</v>
+        <v>-0.5606642086537189</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004099386415501073</v>
+        <v>0.008627184945741093</v>
       </c>
     </row>
     <row r="5">
@@ -2668,10 +2577,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6258499923212735</v>
+        <v>-0.6001559648275961</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001539769215634221</v>
+        <v>0.007861553305376551</v>
       </c>
     </row>
     <row r="6">
@@ -2681,10 +2590,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3565537635613838</v>
+        <v>-0.2687336121869449</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2608621960492998</v>
+        <v>0.4596384940715827</v>
       </c>
     </row>
     <row r="7">
@@ -2694,10 +2603,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2817863096950158</v>
+        <v>0.2378422879254045</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01967395089706604</v>
+        <v>0.1021319761878818</v>
       </c>
     </row>
     <row r="8">
@@ -2707,10 +2616,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003123407754424562</v>
+        <v>0.0005096436420501998</v>
       </c>
       <c r="C8" t="n">
-        <v>9.855482886740759e-15</v>
+        <v>1.01092619396026e-24</v>
       </c>
     </row>
     <row r="9">
@@ -2720,10 +2629,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.009234521568438972</v>
+        <v>0.006785947129072043</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03299884382925276</v>
+        <v>0.1560749981186389</v>
       </c>
     </row>
     <row r="10">
@@ -2733,10 +2642,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07148286395338881</v>
+        <v>0.06626626717905849</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5747208063969098</v>
+        <v>0.6324188589466588</v>
       </c>
     </row>
     <row r="11">
@@ -2746,10 +2655,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3877984010221884</v>
+        <v>0.8199736888723063</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0332772455335424</v>
+        <v>1.364153188673925e-05</v>
       </c>
     </row>
     <row r="12">
@@ -2759,10 +2668,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2586459413987264</v>
+        <v>0.4531493824114969</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2586963181848652</v>
+        <v>0.06137231096600126</v>
       </c>
     </row>
     <row r="13">
@@ -2772,10 +2681,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.180979737649198e-05</v>
+        <v>-4.828456185282547e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09028920025789283</v>
+        <v>0.06566074931631455</v>
       </c>
     </row>
     <row r="14">
@@ -2785,10 +2694,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.826114781816418e-08</v>
+        <v>-5.939126918558695e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5470021717753858</v>
+        <v>0.8509706091823134</v>
       </c>
     </row>
     <row r="15">
@@ -2798,10 +2707,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.03077832237803787</v>
+        <v>0.03741721573755293</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4957345487144046</v>
+        <v>0.4545265725743622</v>
       </c>
     </row>
     <row r="16">
@@ -2811,10 +2720,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.09685757078969899</v>
+        <v>0.1013505453879778</v>
       </c>
       <c r="C16" t="n">
-        <v>0.005433674968943042</v>
+        <v>0.002904079602582348</v>
       </c>
     </row>
     <row r="17">
@@ -2824,10 +2733,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.278648163207149</v>
+        <v>2.19995573043848</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3803391079023184</v>
+        <v>0.1781226154013646</v>
       </c>
     </row>
     <row r="18">
@@ -2837,23 +2746,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.009728215534851131</v>
+        <v>-0.005635701623419848</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1421765177093202</v>
+        <v>0.4621821649432107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.004312613868969003</v>
+        <v>0.00256936366825809</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5700692394891094</v>
+        <v>0.7648863320903267</v>
       </c>
     </row>
     <row r="20">
@@ -2863,10 +2772,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.05152770353200395</v>
+        <v>-0.2919133660542546</v>
       </c>
       <c r="C20" t="n">
-        <v>0.963017285786924</v>
+        <v>0.6767144247766976</v>
       </c>
     </row>
     <row r="21">
@@ -2876,23 +2785,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.6646057210284695</v>
+        <v>-0.4553671243696893</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4729696491913519</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.6006794461916112</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.4635184586068597</v>
+        <v>0.4445200831593223</v>
       </c>
     </row>
   </sheetData>
@@ -2906,7 +2802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2938,10 +2834,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.046723948736686</v>
+        <v>-1.774771277869069</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08336926175002397</v>
+        <v>0.1840143428178622</v>
       </c>
     </row>
     <row r="3">
@@ -2951,10 +2847,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.354254569610397</v>
+        <v>-0.07628563161282585</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1232264281250923</v>
+        <v>0.8002407844520764</v>
       </c>
     </row>
     <row r="4">
@@ -2964,10 +2860,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6383096438520691</v>
+        <v>-0.5032224055879881</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004717797769288117</v>
+        <v>0.01962326657192942</v>
       </c>
     </row>
     <row r="5">
@@ -2977,10 +2873,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5909780017971555</v>
+        <v>-0.5682126824695837</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002306406357955833</v>
+        <v>0.01142660021156374</v>
       </c>
     </row>
     <row r="6">
@@ -2990,10 +2886,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6173201713153861</v>
+        <v>-0.6141610795484449</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04583685319392706</v>
+        <v>0.08259639660756</v>
       </c>
     </row>
     <row r="7">
@@ -3003,10 +2899,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2456932761134548</v>
+        <v>0.2392260285884512</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03151077679303774</v>
+        <v>0.1091017694149268</v>
       </c>
     </row>
     <row r="8">
@@ -3016,10 +2912,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0002450601041750697</v>
+        <v>0.0004975877138891932</v>
       </c>
       <c r="C8" t="n">
-        <v>5.535451851391027e-10</v>
+        <v>1.061940642976315e-24</v>
       </c>
     </row>
     <row r="9">
@@ -3029,10 +2925,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00948530038835442</v>
+        <v>0.006383076434718389</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02792627386982384</v>
+        <v>0.1806145667653013</v>
       </c>
     </row>
     <row r="10">
@@ -3042,10 +2938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06522679978222348</v>
+        <v>0.04547482014976555</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6069564287612648</v>
+        <v>0.7414063254686658</v>
       </c>
     </row>
     <row r="11">
@@ -3055,10 +2951,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5425823203157967</v>
+        <v>0.7044118756694404</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002097041549020685</v>
+        <v>0.0002557849377449677</v>
       </c>
     </row>
     <row r="12">
@@ -3068,10 +2964,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.301579442488667</v>
+        <v>0.3346243224105547</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1802236957184714</v>
+        <v>0.1693684629783523</v>
       </c>
     </row>
     <row r="13">
@@ -3081,10 +2977,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.507205699795029e-05</v>
+        <v>-6.193253480182846e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06343474223953401</v>
+        <v>0.01728412050190954</v>
       </c>
     </row>
     <row r="14">
@@ -3094,10 +2990,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.060216911178215e-08</v>
+        <v>1.925155948545389e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7242577384150868</v>
+        <v>0.5381279763685627</v>
       </c>
     </row>
     <row r="15">
@@ -3107,10 +3003,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.003845084386752877</v>
+        <v>0.0415050881892997</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9319216097461781</v>
+        <v>0.3980977885791498</v>
       </c>
     </row>
     <row r="16">
@@ -3120,10 +3016,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08361209043904698</v>
+        <v>0.1125483932873322</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01527812998402639</v>
+        <v>0.001323367343904416</v>
       </c>
     </row>
     <row r="17">
@@ -3133,10 +3029,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.923111547650361</v>
+        <v>2.212043411321978</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1914431214860111</v>
+        <v>0.1768638962496313</v>
       </c>
     </row>
     <row r="18">
@@ -3146,23 +3042,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01100895140790247</v>
+        <v>-0.007870884757223917</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09437604399384719</v>
+        <v>0.3072476913314025</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01094840976910524</v>
+        <v>0.006233927052163545</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1509172671493698</v>
+        <v>0.469497586919292</v>
       </c>
     </row>
     <row r="20">
@@ -3172,10 +3068,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1456216293282997</v>
+        <v>-0.02002373735837542</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8931585246178926</v>
+        <v>0.9772607240269219</v>
       </c>
     </row>
     <row r="21">
@@ -3185,23 +3081,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.6971271989949819</v>
+        <v>-0.6427685961227841</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4434345461877006</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.5062364194946228</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5294583556456204</v>
+        <v>0.2762971621642188</v>
       </c>
     </row>
   </sheetData>
